--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_558.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_558.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32848-d79137-Reviews-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>29</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Lancaster-Hotels-Motel-6-Palmdale.h996324.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_558.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,327 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r513419782-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>32848</t>
+  </si>
+  <si>
+    <t>79137</t>
+  </si>
+  <si>
+    <t>513419782</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Average Motel 6</t>
+  </si>
+  <si>
+    <t>Spent one night for business. Typical Motel 6. No Fridge, no microwave etc..small towels...thin pillows...that being said, I always bring my own. The room was clean, no housekeeping issues. The bed was comfortable. A quite nights sleep. Many places to eat within walking distance. Gas station and separate restaurant just outside the driveway. No safety concerns. Nothing bad or great. Would not stay here if self pay.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r480995351-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>480995351</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Motel 6 abusing the DNR list</t>
+  </si>
+  <si>
+    <t>This is the 2nd motel 6 My family and I visited on a family vacation and was unknowingly put on a DNR. We had snacks however we didn't have any luggage as we just got tired and stopped we didn't take or use the shower we did sleep in the beds and ate our snacks. we did leave out trash in the room I'm bags we decided to stay another night when we came back to check in we were then told we were on a DNR list we were able to make a reservation and pay for the room but could not check in and still did not get a refundMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This is the 2nd motel 6 My family and I visited on a family vacation and was unknowingly put on a DNR. We had snacks however we didn't have any luggage as we just got tired and stopped we didn't take or use the shower we did sleep in the beds and ate our snacks. we did leave out trash in the room I'm bags we decided to stay another night when we came back to check in we were then told we were on a DNR list we were able to make a reservation and pay for the room but could not check in and still did not get a refundMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r455727021-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>455727021</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>MexBob5150</t>
+  </si>
+  <si>
+    <t>Hotel was fair ! Had someone call my room at 4:00 am ! Didn't answer the phone ! A few minutes later someone was knocking at my door ! Looked thru the peep hole and saw someone in a hoodie ! Called front desk and sent security ! Heard a discussing out side ! Bed sheets always make me feel itchy ! Like something is crawling on me ! ! Paid a little over $100 for two nites ! Not my favorite place to stay ! But works in a pinch ! They do have a lot of 30 day guests ! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Palmdale, responded to this reviewResponded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was fair ! Had someone call my room at 4:00 am ! Didn't answer the phone ! A few minutes later someone was knocking at my door ! Looked thru the peep hole and saw someone in a hoodie ! Called front desk and sent security ! Heard a discussing out side ! Bed sheets always make me feel itchy ! Like something is crawling on me ! ! Paid a little over $100 for two nites ! Not my favorite place to stay ! But works in a pinch ! They do have a lot of 30 day guests ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r367208484-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>367208484</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Average Motel</t>
+  </si>
+  <si>
+    <t>This is just an average pull-in off the highway motel.We stayed in a room out the back which was fairly quiet. The room was very basic but looked like it had a recent refurbishment. Guy at reception was pleasant. They offer wifi for  $2.99 which is ok, as the room tariff is very reasonable. Comfortable bed that gave a good night's sleep. No clock in the room, but that's just minor.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r332483908-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>332483908</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t>Very good price! !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is clean, up date it with flat screen TV, up date bath room,a desk or table with chair , comfortable beds. A/C , HEATER. restaurant lucky roxy with good  Italian, dinner and Mexican food, am/pm gasolina station in the same plaza. </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r330337995-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>330337995</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasonable </t>
+  </si>
+  <si>
+    <t>Reasonable for its price , typical motel 6 but clean ! Would stay again . Housekeeping was nice and asked if we wanted service done to our room .. Lots to eat around area for theyre many choices . Full bathroom , cant stand when a bathroom dosent have its mirror and sink in one area this one was complete (:</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r251189035-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>251189035</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>Cheap but  Did Not Like</t>
+  </si>
+  <si>
+    <t>Motel 6 is undergoing renovations but I got an old room, I think. I stayed on a Saturday night. Costs are more expensive on Friday and Saturday. My bill was around $49.00 because I paid extra for microwave and fridge use. This rate included a discount and complimentary internet which normally costs about $3 for 24 hours.  The front desk workers were great, all young people. The Sunday checkout clerk was not as nice.The room was clean but that was pretty much it. I had trouble using the key card.Each time I had to jiggle it at least 6-8 times to get in. It was cold in the room for the entire night and I normally sleep in low terperatures. I ended up sleeping in my clothes. The internet worked only in one place and was so slow that I could not accomplish what I needed to do. I do not plan to return.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Palmdale, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Motel 6 is undergoing renovations but I got an old room, I think. I stayed on a Saturday night. Costs are more expensive on Friday and Saturday. My bill was around $49.00 because I paid extra for microwave and fridge use. This rate included a discount and complimentary internet which normally costs about $3 for 24 hours.  The front desk workers were great, all young people. The Sunday checkout clerk was not as nice.The room was clean but that was pretty much it. I had trouble using the key card.Each time I had to jiggle it at least 6-8 times to get in. It was cold in the room for the entire night and I normally sleep in low terperatures. I ended up sleeping in my clothes. The internet worked only in one place and was so slow that I could not accomplish what I needed to do. I do not plan to return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r246868904-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>246868904</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>hard to find location</t>
+  </si>
+  <si>
+    <t>If you arrive from the east or west it is very difficult to find this motel.  Only a  very small sign and the motel is hidden from the street.Within 10 minutes of arriving and checking in another guest opened our door with his room key.  He said he had been assigned the same room.  After he left our keys would not work.  I went back to the front desk for new keys and the clerk said she knew nothing about renting the room to someone else.  I really think she was lying.  If she had just admitted it then I would have thought it was an honest mistake.  I was concerned the rest of the evening that other people might have access to our room.The next morning again our keys would not work.  Seem to be other guests with similar issues.I had no issue with the cleanliness, the bedding etc. but I would not come back because of issues with the door locks.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Palmdale, responded to this reviewResponded January 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2015</t>
+  </si>
+  <si>
+    <t>If you arrive from the east or west it is very difficult to find this motel.  Only a  very small sign and the motel is hidden from the street.Within 10 minutes of arriving and checking in another guest opened our door with his room key.  He said he had been assigned the same room.  After he left our keys would not work.  I went back to the front desk for new keys and the clerk said she knew nothing about renting the room to someone else.  I really think she was lying.  If she had just admitted it then I would have thought it was an honest mistake.  I was concerned the rest of the evening that other people might have access to our room.The next morning again our keys would not work.  Seem to be other guests with similar issues.I had no issue with the cleanliness, the bedding etc. but I would not come back because of issues with the door locks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r205720929-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>205720929</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>What ever happened to the Motel 6 chain</t>
+  </si>
+  <si>
+    <t>Prices go up, quality goes down.  We recently stayed at a Motel 6 in Palmdale, Ca.  We stay there because we have 2 small dogs, but what a shock when we entered our room.First we requested a non-smoking room, but you could smell smoke all over the place.  Then we had to find someone to bring us towels.  The curtains had holes in them, you could see through from the walkway out front.  The bedspreads were worn, the room needed repair and updating.Thank goodness we bring our own pillows as I wouldn't trust where the pillows had been.We were very disappointed in the place as a whole.  We have stayed at Motel 6's before and have found that they are not what they used to be nor what their commercials say.They might leave the light on for you but they should clean the light once in awhile.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Prices go up, quality goes down.  We recently stayed at a Motel 6 in Palmdale, Ca.  We stay there because we have 2 small dogs, but what a shock when we entered our room.First we requested a non-smoking room, but you could smell smoke all over the place.  Then we had to find someone to bring us towels.  The curtains had holes in them, you could see through from the walkway out front.  The bedspreads were worn, the room needed repair and updating.Thank goodness we bring our own pillows as I wouldn't trust where the pillows had been.We were very disappointed in the place as a whole.  We have stayed at Motel 6's before and have found that they are not what they used to be nor what their commercials say.They might leave the light on for you but they should clean the light once in awhile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r151200637-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>151200637</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>Not up to most Motel 6 standards!</t>
+  </si>
+  <si>
+    <t>We stopped on our way up from California since it was later in the evening and we wanted to leave early.We were given a room that felt grubby on the back of the hotel.  There was a big wet spot (about 4 ft x 2 1/2 ft) on the floor by the bathroom door carpet from some kind of leak.   By the time we discovered this we were in our pajamas so just stepped around it.The beds were like sleeping on concrete slabs. The sheets and towels looked wrinkled - never folded out of the dryer.  The best part of this stop was leaving in the morning.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r146404351-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>146404351</t>
+  </si>
+  <si>
+    <t>11/28/2012</t>
+  </si>
+  <si>
+    <t>Great Budget Hotel</t>
+  </si>
+  <si>
+    <t>I have stayed in this location many times and although there have been issues, the Manager and staff have always been very accommodating and issues are addressed immediately.Can be noisy at times due to the location being right next to the freeway, but rooms I have stayed in have  always been clean.. Air conditioning was noisy and did not work very well.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r124837422-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>124837422</t>
+  </si>
+  <si>
+    <t>02/19/2012</t>
+  </si>
+  <si>
+    <t>Not as good as it could be.</t>
+  </si>
+  <si>
+    <t>As busy as this place was it should be remolded.  I showed up at 2:00 PM only to be told my room was not ready and to show up at 3:30.  I return at 3:30 only to be told my room is still not ready and to come back at 4:00 PM.  I got there at 4:00 PM and there was over 50 people in line at the counter and it took almost an hour of waiting to get my room.  This location either needs more staff or better trained staff.  The rate was very good at $40.00 per night.  The condition was old but nothing was broken.  There was a lot of little kids screaming in the early evening but otherwise quiet.  Parking was ok but access to the 2nd floor is a little difficult due to the small number of staircases.  There are a couple of fast food places and a convenience store within easy walking distance.  The convenience store is a little on the small side.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>As busy as this place was it should be remolded.  I showed up at 2:00 PM only to be told my room was not ready and to show up at 3:30.  I return at 3:30 only to be told my room is still not ready and to come back at 4:00 PM.  I got there at 4:00 PM and there was over 50 people in line at the counter and it took almost an hour of waiting to get my room.  This location either needs more staff or better trained staff.  The rate was very good at $40.00 per night.  The condition was old but nothing was broken.  There was a lot of little kids screaming in the early evening but otherwise quiet.  Parking was ok but access to the 2nd floor is a little difficult due to the small number of staircases.  There are a couple of fast food places and a convenience store within easy walking distance.  The convenience store is a little on the small side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r46306888-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>46306888</t>
+  </si>
+  <si>
+    <t>10/08/2009</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Although the price was the lowest available, the room featured an air conditioner that blew heat, a refridgerator that kept food warm, bath towels the size of wash cloths and a TV with 8 channels.</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r18263883-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>18263883</t>
+  </si>
+  <si>
+    <t>07/25/2008</t>
+  </si>
+  <si>
+    <t>Great Staff, Awful Guests</t>
+  </si>
+  <si>
+    <t>I just finished a two week business trip to Palmdale, CA.  I didn't know where I would be staying, so I was holding my breath after reading the reviews about the Ramada.  When my boss pulled into the Motel 6 parking lot, I was relieved at first.  The Motel 6 has both pluses and drawbacks.  The good thing is that the staff is very responsive.  I was upset to find that the carpet in my room was filthy enough to turn my feet black.  However, it only took a mention to one of the very friendly and accommodating housekeepers for someone to appear instantly at my door with a carpet cleaning machine to scrub it like new (it was actually an appealing shade of blue).  They went out of their way to make the very modest room (no tub, microfridge, coffeemaker or even shampoo) as neat and comfy as they could.  Even though the "rules" stated that extended stay guests only got their bedlinens changed every 3 days, they would have changed mine every single day given the chance.  Now the drawbacks.  I don't think I'll ever stay in an outside-access room again after this experience.  The guests were almost entirely contractors working on the new hospital across the road.  They had trucks with loud engines and car alarms that were parked next to my bed and they woke me at all hours of the day and night.  Maybe this...I just finished a two week business trip to Palmdale, CA.  I didn't know where I would be staying, so I was holding my breath after reading the reviews about the Ramada.  When my boss pulled into the Motel 6 parking lot, I was relieved at first.  The Motel 6 has both pluses and drawbacks.  The good thing is that the staff is very responsive.  I was upset to find that the carpet in my room was filthy enough to turn my feet black.  However, it only took a mention to one of the very friendly and accommodating housekeepers for someone to appear instantly at my door with a carpet cleaning machine to scrub it like new (it was actually an appealing shade of blue).  They went out of their way to make the very modest room (no tub, microfridge, coffeemaker or even shampoo) as neat and comfy as they could.  Even though the "rules" stated that extended stay guests only got their bedlinens changed every 3 days, they would have changed mine every single day given the chance.  Now the drawbacks.  I don't think I'll ever stay in an outside-access room again after this experience.  The guests were almost entirely contractors working on the new hospital across the road.  They had trucks with loud engines and car alarms that were parked next to my bed and they woke me at all hours of the day and night.  Maybe this is OK for a 1-night stopover, but 2 weeks of this was mindnumbingly exhausting!  The other guests were inclined to quarreling and domestic disputes.  It was a common experience for me and my boss to overhear guests screaming profanities or witness people repairing broken-down cars.  One afternoon the police appeared outside my door to break up an altercation.  I quit using the outdoor pool because I got sick of beer-guzzling guys hitting on me.  To end this on a positive note, though, the location of Motel 6 is great.  You can hop a bus to the Antelope Valley Mall from the Del Taco next door.  There's an AM/PM convenience store and a great diner called Lucky Roxy's Cafe in the same parking lot as Motel 6.  If the guests weren't such obnoxious jerks, this would have been a relatively pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>I just finished a two week business trip to Palmdale, CA.  I didn't know where I would be staying, so I was holding my breath after reading the reviews about the Ramada.  When my boss pulled into the Motel 6 parking lot, I was relieved at first.  The Motel 6 has both pluses and drawbacks.  The good thing is that the staff is very responsive.  I was upset to find that the carpet in my room was filthy enough to turn my feet black.  However, it only took a mention to one of the very friendly and accommodating housekeepers for someone to appear instantly at my door with a carpet cleaning machine to scrub it like new (it was actually an appealing shade of blue).  They went out of their way to make the very modest room (no tub, microfridge, coffeemaker or even shampoo) as neat and comfy as they could.  Even though the "rules" stated that extended stay guests only got their bedlinens changed every 3 days, they would have changed mine every single day given the chance.  Now the drawbacks.  I don't think I'll ever stay in an outside-access room again after this experience.  The guests were almost entirely contractors working on the new hospital across the road.  They had trucks with loud engines and car alarms that were parked next to my bed and they woke me at all hours of the day and night.  Maybe this...I just finished a two week business trip to Palmdale, CA.  I didn't know where I would be staying, so I was holding my breath after reading the reviews about the Ramada.  When my boss pulled into the Motel 6 parking lot, I was relieved at first.  The Motel 6 has both pluses and drawbacks.  The good thing is that the staff is very responsive.  I was upset to find that the carpet in my room was filthy enough to turn my feet black.  However, it only took a mention to one of the very friendly and accommodating housekeepers for someone to appear instantly at my door with a carpet cleaning machine to scrub it like new (it was actually an appealing shade of blue).  They went out of their way to make the very modest room (no tub, microfridge, coffeemaker or even shampoo) as neat and comfy as they could.  Even though the "rules" stated that extended stay guests only got their bedlinens changed every 3 days, they would have changed mine every single day given the chance.  Now the drawbacks.  I don't think I'll ever stay in an outside-access room again after this experience.  The guests were almost entirely contractors working on the new hospital across the road.  They had trucks with loud engines and car alarms that were parked next to my bed and they woke me at all hours of the day and night.  Maybe this is OK for a 1-night stopover, but 2 weeks of this was mindnumbingly exhausting!  The other guests were inclined to quarreling and domestic disputes.  It was a common experience for me and my boss to overhear guests screaming profanities or witness people repairing broken-down cars.  One afternoon the police appeared outside my door to break up an altercation.  I quit using the outdoor pool because I got sick of beer-guzzling guys hitting on me.  To end this on a positive note, though, the location of Motel 6 is great.  You can hop a bus to the Antelope Valley Mall from the Del Taco next door.  There's an AM/PM convenience store and a great diner called Lucky Roxy's Cafe in the same parking lot as Motel 6.  If the guests weren't such obnoxious jerks, this would have been a relatively pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r3570906-Motel_6_Palmdale-Palmdale_California.html</t>
+  </si>
+  <si>
+    <t>3570906</t>
+  </si>
+  <si>
+    <t>06/15/2005</t>
+  </si>
+  <si>
+    <t>It is what it is, fits the bill</t>
+  </si>
+  <si>
+    <t>$51.99 a night less an AARP 10% discount as a sleepover on the way from Arizona to San Francisco. The location is fine close to the interstate; the staff was friendly, informative and very pleasant; the property was well maintained. The room was a standard small Motel 6 room, but it was very clean and the furnishings were in good condition. We felt safe, we slept fine. What more do you expect at these prices in California? It fit the bill!</t>
   </si>
 </sst>
 </file>
@@ -648,6 +969,951 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>2</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22505</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_558.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_558.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>brkinlv</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Ky S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r480995351-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>This is the 2nd motel 6 My family and I visited on a family vacation and was unknowingly put on a DNR. We had snacks however we didn't have any luggage as we just got tired and stopped we didn't take or use the shower we did sleep in the beds and ate our snacks. we did leave out trash in the room I'm bags we decided to stay another night when we came back to check in we were then told we were on a DNR list we were able to make a reservation and pay for the room but could not check in and still did not get a refundMore</t>
   </si>
   <si>
+    <t>mexicanbob5150</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r455727021-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Hotel was fair ! Had someone call my room at 4:00 am ! Didn't answer the phone ! A few minutes later someone was knocking at my door ! Looked thru the peep hole and saw someone in a hoodie ! Called front desk and sent security ! Heard a discussing out side ! Bed sheets always make me feel itchy ! Like something is crawling on me ! ! Paid a little over $100 for two nites ! Not my favorite place to stay ! But works in a pinch ! They do have a lot of 30 day guests ! More</t>
   </si>
   <si>
+    <t>Schanuzer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r367208484-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Carlos P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r332483908-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>Alysonn V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r330337995-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t>Reasonable for its price , typical motel 6 but clean ! Would stay again . Housekeeping was nice and asked if we wanted service done to our room .. Lots to eat around area for theyre many choices . Full bathroom , cant stand when a bathroom dosent have its mirror and sink in one area this one was complete (:</t>
   </si>
   <si>
+    <t>Marx H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r251189035-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -312,6 +333,9 @@
     <t>Motel 6 is undergoing renovations but I got an old room, I think. I stayed on a Saturday night. Costs are more expensive on Friday and Saturday. My bill was around $49.00 because I paid extra for microwave and fridge use. This rate included a discount and complimentary internet which normally costs about $3 for 24 hours.  The front desk workers were great, all young people. The Sunday checkout clerk was not as nice.The room was clean but that was pretty much it. I had trouble using the key card.Each time I had to jiggle it at least 6-8 times to get in. It was cold in the room for the entire night and I normally sleep in low terperatures. I ended up sleeping in my clothes. The internet worked only in one place and was so slow that I could not accomplish what I needed to do. I do not plan to return.More</t>
   </si>
   <si>
+    <t>tangojohnDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r246868904-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -339,6 +363,9 @@
     <t>If you arrive from the east or west it is very difficult to find this motel.  Only a  very small sign and the motel is hidden from the street.Within 10 minutes of arriving and checking in another guest opened our door with his room key.  He said he had been assigned the same room.  After he left our keys would not work.  I went back to the front desk for new keys and the clerk said she knew nothing about renting the room to someone else.  I really think she was lying.  If she had just admitted it then I would have thought it was an honest mistake.  I was concerned the rest of the evening that other people might have access to our room.The next morning again our keys would not work.  Seem to be other guests with similar issues.I had no issue with the cleanliness, the bedding etc. but I would not come back because of issues with the door locks.More</t>
   </si>
   <si>
+    <t>marilynjack1929</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r205720929-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>Prices go up, quality goes down.  We recently stayed at a Motel 6 in Palmdale, Ca.  We stay there because we have 2 small dogs, but what a shock when we entered our room.First we requested a non-smoking room, but you could smell smoke all over the place.  Then we had to find someone to bring us towels.  The curtains had holes in them, you could see through from the walkway out front.  The bedspreads were worn, the room needed repair and updating.Thank goodness we bring our own pillows as I wouldn't trust where the pillows had been.We were very disappointed in the place as a whole.  We have stayed at Motel 6's before and have found that they are not what they used to be nor what their commercials say.They might leave the light on for you but they should clean the light once in awhile.More</t>
   </si>
   <si>
+    <t>SunTravellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r151200637-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -378,6 +408,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>IreneB136</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r146404351-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>Wayne J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r124837422-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>As busy as this place was it should be remolded.  I showed up at 2:00 PM only to be told my room was not ready and to show up at 3:30.  I return at 3:30 only to be told my room is still not ready and to come back at 4:00 PM.  I got there at 4:00 PM and there was over 50 people in line at the counter and it took almost an hour of waiting to get my room.  This location either needs more staff or better trained staff.  The rate was very good at $40.00 per night.  The condition was old but nothing was broken.  There was a lot of little kids screaming in the early evening but otherwise quiet.  Parking was ok but access to the 2nd floor is a little difficult due to the small number of staircases.  There are a couple of fast food places and a convenience store within easy walking distance.  The convenience store is a little on the small side.More</t>
   </si>
   <si>
+    <t>DJGREG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r46306888-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -435,6 +474,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>BuickMackane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r18263883-Motel_6_Palmdale-Palmdale_California.html</t>
   </si>
   <si>
@@ -454,6 +496,9 @@
   </si>
   <si>
     <t>I just finished a two week business trip to Palmdale, CA.  I didn't know where I would be staying, so I was holding my breath after reading the reviews about the Ramada.  When my boss pulled into the Motel 6 parking lot, I was relieved at first.  The Motel 6 has both pluses and drawbacks.  The good thing is that the staff is very responsive.  I was upset to find that the carpet in my room was filthy enough to turn my feet black.  However, it only took a mention to one of the very friendly and accommodating housekeepers for someone to appear instantly at my door with a carpet cleaning machine to scrub it like new (it was actually an appealing shade of blue).  They went out of their way to make the very modest room (no tub, microfridge, coffeemaker or even shampoo) as neat and comfy as they could.  Even though the "rules" stated that extended stay guests only got their bedlinens changed every 3 days, they would have changed mine every single day given the chance.  Now the drawbacks.  I don't think I'll ever stay in an outside-access room again after this experience.  The guests were almost entirely contractors working on the new hospital across the road.  They had trucks with loud engines and car alarms that were parked next to my bed and they woke me at all hours of the day and night.  Maybe this...I just finished a two week business trip to Palmdale, CA.  I didn't know where I would be staying, so I was holding my breath after reading the reviews about the Ramada.  When my boss pulled into the Motel 6 parking lot, I was relieved at first.  The Motel 6 has both pluses and drawbacks.  The good thing is that the staff is very responsive.  I was upset to find that the carpet in my room was filthy enough to turn my feet black.  However, it only took a mention to one of the very friendly and accommodating housekeepers for someone to appear instantly at my door with a carpet cleaning machine to scrub it like new (it was actually an appealing shade of blue).  They went out of their way to make the very modest room (no tub, microfridge, coffeemaker or even shampoo) as neat and comfy as they could.  Even though the "rules" stated that extended stay guests only got their bedlinens changed every 3 days, they would have changed mine every single day given the chance.  Now the drawbacks.  I don't think I'll ever stay in an outside-access room again after this experience.  The guests were almost entirely contractors working on the new hospital across the road.  They had trucks with loud engines and car alarms that were parked next to my bed and they woke me at all hours of the day and night.  Maybe this is OK for a 1-night stopover, but 2 weeks of this was mindnumbingly exhausting!  The other guests were inclined to quarreling and domestic disputes.  It was a common experience for me and my boss to overhear guests screaming profanities or witness people repairing broken-down cars.  One afternoon the police appeared outside my door to break up an altercation.  I quit using the outdoor pool because I got sick of beer-guzzling guys hitting on me.  To end this on a positive note, though, the location of Motel 6 is great.  You can hop a bus to the Antelope Valley Mall from the Del Taco next door.  There's an AM/PM convenience store and a great diner called Lucky Roxy's Cafe in the same parking lot as Motel 6.  If the guests weren't such obnoxious jerks, this would have been a relatively pleasant stay.More</t>
+  </si>
+  <si>
+    <t>outofthewest</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32848-d79137-r3570906-Motel_6_Palmdale-Palmdale_California.html</t>
@@ -973,43 +1018,47 @@
       <c r="A2" t="n">
         <v>22505</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1023,50 +1072,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22505</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1080,50 +1133,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>22505</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1135,56 +1192,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22505</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1204,50 +1265,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22505</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1261,41 +1326,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22505</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -1314,50 +1383,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22505</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -1375,56 +1448,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22505</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -1442,56 +1519,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>22505</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1515,50 +1596,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>22505</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1582,50 +1667,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>22505</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1649,50 +1738,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>22505</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -1716,50 +1809,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>22505</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -1783,50 +1880,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>22505</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="L15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>2</v>
@@ -1850,41 +1951,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>22505</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
@@ -1911,7 +2016,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
